--- a/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_TRIPHAMMER_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,33 +502,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10400</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Equal Exchange - One World</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>71.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>214.50</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_TRIPHAMMER_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10400</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Equal Exchange - One World</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>214.50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
